--- a/biology/Botanique/Olive_de_Kalamata/Olive_de_Kalamata.xlsx
+++ b/biology/Botanique/Olive_de_Kalamata/Olive_de_Kalamata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'olive de Kalamata (Ελιά Καλαμάτας) est une grande olive violette avec une texture lisse et charnue appelée d'après la ville de Kalamata dans le sud du Péloponnèse, en Grèce[1]. 
-Les olives de Kalamata sont protégées dans l'Union européenne par le statut d'AOP réservant la dénomination aux olives de cette variété cultivées dans la région de Messénie[2]. Le nom désignant à la fois une origine géographique et une variété, les olives de cette variété cultivées ailleurs sont commercialisées sous le nom de « Kalamon »[3] (Ελιά Καλαμών, olive de Kalamai, un ancien nom de Kalamata).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'olive de Kalamata (Ελιά Καλαμάτας) est une grande olive violette avec une texture lisse et charnue appelée d'après la ville de Kalamata dans le sud du Péloponnèse, en Grèce. 
+Les olives de Kalamata sont protégées dans l'Union européenne par le statut d'AOP réservant la dénomination aux olives de cette variété cultivées dans la région de Messénie. Le nom désignant à la fois une origine géographique et une variété, les olives de cette variété cultivées ailleurs sont commercialisées sous le nom de « Kalamon » (Ελιά Καλαμών, olive de Kalamai, un ancien nom de Kalamata).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les olives de Kalamata AOP sont cultivées dans la région de Messénie. Elles sont en forme d'amande, dodues, violet foncé. L'arbre se distingue de l'olivier commun par la taille de ses feuilles, parfois le double d'autres variétés d'oliviers. Les arbres sont intolérants au froid et sont sensibles au flétrissement de Verticillium mais sont résistants au chancre de l'olivier et à la mouche de l'olive.
 </t>
@@ -543,9 +557,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Souvent utilisées comme olives de table, elles sont habituellement conservées dans le vinaigre ou l'huile d'olive. La variété se prête bien à la réalisation d'huile d'olive ou de tapenade (avec de l'ail, anchois et huile d'olive)[4] mais également dans les salades méditerranéennes, les plats de riz et les pizzas où leur goût distinctif rehausse la complexité des saveurs.  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souvent utilisées comme olives de table, elles sont habituellement conservées dans le vinaigre ou l'huile d'olive. La variété se prête bien à la réalisation d'huile d'olive ou de tapenade (avec de l'ail, anchois et huile d'olive) mais également dans les salades méditerranéennes, les plats de riz et les pizzas où leur goût distinctif rehausse la complexité des saveurs.  
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Récolte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les olives de Kalamata, qui ne peuvent pas être récoltées vertes, doivent être cueillies à la main pour éviter les ecchymoses.
 </t>
